--- a/crops/src/main/resources/webapp/office/pageoffice/activityList-template.xlsx
+++ b/crops/src/main/resources/webapp/office/pageoffice/activityList-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="24825" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="23256" windowHeight="12252"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -127,10 +130,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,33 +423,33 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
-    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
